--- a/assets/file/finance.xlsx
+++ b/assets/file/finance.xlsx
@@ -21,7 +21,7 @@
     <author>MEDIA</author>
   </authors>
   <commentList>
-    <comment ref="J6" authorId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0">
+    <comment ref="K7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0">
+    <comment ref="M7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +704,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,43 +736,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,10 +760,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -811,7 +781,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A2:M70"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="21.6" x14ac:dyDescent="0.25"/>
@@ -1146,233 +1140,188 @@
     <col min="14" max="16384" width="11.296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="11" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M4" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <f>H6+F6+D6+B6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <f>I6+G6+E6+C6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
-        <f>K6-J6</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="26" t="str">
-        <f>IF(L6&gt;0.01,L6/K6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f>H7+F7+D7+B7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <f>I7+G7+E7+C7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <f>K7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="14" t="str">
+        <f>IF(L7&gt;0.01,L7/K7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <f>H8+F8+D8+B8</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <f>I8+G8+E8+C8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <f>K8-J8</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="9" t="str">
-        <f>IF(L8&gt;0.01,L8/K8,"")</f>
-        <v/>
-      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1399,70 +1348,70 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" ref="J9:J11" si="0">H9+F9+D9+B9</f>
+        <f>H9+F9+D9+B9</f>
         <v>0</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" ref="K9:K11" si="1">I9+G9+E9+C9</f>
+        <f>I9+G9+E9+C9</f>
         <v>0</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" ref="L9:L11" si="2">K9-J9</f>
+        <f>K9-J9</f>
         <v>0</v>
       </c>
       <c r="M9" s="9" t="str">
-        <f t="shared" ref="M9:M11" si="3">IF(L9&gt;0.01,L9/K9,"")</f>
+        <f>IF(L9&gt;0.01,L9/K9,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ref="J10:J12" si="0">H10+F10+D10+B10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" ref="K10:K12" si="1">I10+G10+E10+C10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" ref="L10:L12" si="2">K10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="str">
+        <f t="shared" ref="M10:M12" si="3">IF(L10&gt;0.01,L10/K10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1505,137 +1454,138 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="27">
-        <f>SUM(B8:B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="27">
-        <f>SUM(C8:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="27">
-        <f t="shared" ref="D12:L12" si="4">SUM(D8:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="B13" s="15">
+        <f>SUM(B9:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <f>SUM(C9:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" ref="D13:L13" si="4">SUM(D9:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="13" spans="1:13" ht="22.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" ht="22.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <f>H15+F15+D15+B15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" ref="L15:L18" si="5">K15-J15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="9" t="str">
-        <f t="shared" ref="M15:M21" si="6">IF(L15&gt;0.01,L15/K15,"")</f>
-        <v/>
-      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1662,24 +1612,24 @@
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" ref="J16:J18" si="7">H16+F16+D16+B16</f>
+        <f>H16+F16+D16+B16</f>
         <v>0</v>
       </c>
       <c r="K16" s="8">
         <v>0</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L16:L19" si="5">K16-J16</f>
         <v>0</v>
       </c>
       <c r="M16" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M16:M22" si="6">IF(L16&gt;0.01,L16/K16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -1706,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J17:J19" si="7">H17+F17+D17+B17</f>
         <v>0</v>
       </c>
       <c r="K17" s="8">
@@ -1721,9 +1671,9 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -1765,394 +1715,394 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="27">
-        <f>SUM(B15:B18)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="27">
-        <f t="shared" ref="C19:K19" si="8">SUM(C15:C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="B20" s="15">
+        <f>SUM(B16:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" ref="C20:K20" si="8">SUM(C16:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E20" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F20" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G20" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H20" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I20" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J20" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K20" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-    </row>
-    <row r="20" spans="1:13" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" ref="J21" si="9">H21+F21+D21+B21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <f t="shared" ref="L21" si="10">K21-J21</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="9" t="str">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" ref="J22" si="9">H22+F22+D22+B22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" ref="L22" si="10">K22-J22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+    <row r="23" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="27">
-        <f>B21+B19</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="27">
-        <f t="shared" ref="C22:K22" si="11">C21+C19</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="27">
+      <c r="B23" s="15">
+        <f>B22+B20</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" ref="C23:K23" si="11">C22+C20</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E23" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F23" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G23" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H23" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I23" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J23" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K23" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-    </row>
-    <row r="23" spans="1:13" ht="24" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" ht="24" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" ref="J25:J26" si="12">H25+F25+D25+B25</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <f t="shared" ref="L25:L26" si="13">K25-J25</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="9" t="str">
-        <f t="shared" ref="M25:M26" si="14">IF(L25&gt;0.01,L25/K25,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" ref="J26:J27" si="12">H26+F26+D26+B26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" ref="L26:L27" si="13">K26-J26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="str">
+        <f t="shared" ref="M26:M27" si="14">IF(L26&gt;0.01,L26/K26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K26" s="8">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M26" s="9" t="str">
+      <c r="M27" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+    <row r="28" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="27">
-        <f>SUM(B25:B26)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="27">
-        <f t="shared" ref="C27:K27" si="15">SUM(C25:C26)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="27">
+      <c r="B28" s="15">
+        <f>SUM(B26:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" ref="C28:K28" si="15">SUM(C26:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E28" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F28" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G28" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H28" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I28" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J28" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K28" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-    </row>
-    <row r="28" spans="1:13" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-    </row>
-    <row r="29" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" ref="J29:J32" si="16">H29+F29+D29+B29</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <f t="shared" ref="L29:L32" si="17">K29-J29</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="9" t="str">
-        <f t="shared" ref="M29:M32" si="18">IF(L29&gt;0.01,L29/K29,"")</f>
-        <v/>
-      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -2179,24 +2129,24 @@
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J30:J33" si="16">H30+F30+D30+B30</f>
         <v>0</v>
       </c>
       <c r="K30" s="8">
         <v>0</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="L30:L33" si="17">K30-J30</f>
         <v>0</v>
       </c>
       <c r="M30" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="M30:M33" si="18">IF(L30&gt;0.01,L30/K30,"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -2238,9 +2188,9 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -2282,192 +2232,210 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="27">
-        <f>SUM(B29:B32)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="27">
-        <f t="shared" ref="C33:K33" si="19">SUM(C29:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="27">
+      <c r="B34" s="15">
+        <f>SUM(B30:B33)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="15">
+        <f t="shared" ref="C34:K34" si="19">SUM(C30:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E34" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F34" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G34" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H34" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I34" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J34" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K34" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-    </row>
-    <row r="34" spans="1:13" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+    </row>
+    <row r="36" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" ref="J35:J44" si="20">H35+F35+D35+B35</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <f t="shared" ref="L35:L44" si="21">K35-J35</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="9" t="str">
-        <f t="shared" ref="M35:M44" si="22">IF(L35&gt;0.01,L35/K35,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" ref="J36:J45" si="20">H36+F36+D36+B36</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" ref="L36:L45" si="21">K36-J36</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="9" t="str">
+        <f t="shared" ref="M36:M45" si="22">IF(L36&gt;0.01,L36/K36,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="8">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="9" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
       <c r="J38" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K38" s="8"/>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
       <c r="L38" s="9">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -2479,39 +2447,21 @@
     </row>
     <row r="39" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="8">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
+      <c r="K39" s="8"/>
       <c r="L39" s="9">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -2523,7 +2473,7 @@
     </row>
     <row r="40" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -2567,7 +2517,7 @@
     </row>
     <row r="41" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -2611,7 +2561,7 @@
     </row>
     <row r="42" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -2655,7 +2605,7 @@
     </row>
     <row r="43" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -2697,39 +2647,39 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10">
+    <row r="44" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
         <v>0</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="8">
         <v>0</v>
       </c>
       <c r="L44" s="9">
@@ -2741,117 +2691,117 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="27">
-        <f>SUM(B39:B44)</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="27">
-        <f t="shared" ref="C45:K45" si="23">SUM(C39:C44)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="27">
+      <c r="B46" s="15">
+        <f>SUM(B40:B45)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="15">
+        <f t="shared" ref="C46:K46" si="23">SUM(C40:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E46" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F46" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G46" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H46" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I46" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J46" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K46" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-    </row>
-    <row r="46" spans="1:13" ht="22.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" ht="22.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-    </row>
-    <row r="47" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="8">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="8">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <f t="shared" ref="J47:J53" si="24">H47+F47+D47+B47</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="8">
-        <v>0</v>
-      </c>
-      <c r="L47" s="9">
-        <f t="shared" ref="L47:L53" si="25">K47-J47</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="9" t="str">
-        <f t="shared" ref="M47:M53" si="26">IF(L47&gt;0.01,L47/K47,"")</f>
-        <v/>
-      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
     </row>
     <row r="48" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -2878,24 +2828,24 @@
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="J48:J54" si="24">H48+F48+D48+B48</f>
         <v>0</v>
       </c>
       <c r="K48" s="8">
         <v>0</v>
       </c>
       <c r="L48" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="L48:L54" si="25">K48-J48</f>
         <v>0</v>
       </c>
       <c r="M48" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="M48:M54" si="26">IF(L48&gt;0.01,L48/K48,"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -2939,7 +2889,7 @@
     </row>
     <row r="50" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -2983,7 +2933,7 @@
     </row>
     <row r="51" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -3027,7 +2977,7 @@
     </row>
     <row r="52" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -3069,9 +3019,9 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -3113,161 +3063,161 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
+    <row r="54" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="27">
-        <f>SUM(B47:B53)</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="27">
-        <f t="shared" ref="C54:K54" si="27">SUM(C47:C53)</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="27">
+      <c r="B55" s="15">
+        <f>SUM(B48:B54)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="15">
+        <f t="shared" ref="C55:K55" si="27">SUM(C48:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="15">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E55" s="15">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F54" s="27">
+      <c r="F55" s="15">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="G54" s="27">
+      <c r="G55" s="15">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H54" s="27">
+      <c r="H55" s="15">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I55" s="15">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J54" s="27">
+      <c r="J55" s="15">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K54" s="27">
+      <c r="K55" s="15">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-    </row>
-    <row r="55" spans="1:13" ht="22.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+    </row>
+    <row r="56" spans="1:13" ht="22.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-    </row>
-    <row r="56" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
-      <c r="C56" s="8">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="8">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="8">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
-        <f t="shared" ref="J56:J61" si="28">H56+F56+D56+B56</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="8">
-        <v>0</v>
-      </c>
-      <c r="L56" s="9">
-        <f t="shared" ref="L56:L61" si="29">K56-J56</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="9" t="str">
-        <f t="shared" ref="M56:M61" si="30">IF(L56&gt;0.01,L56/K56,"")</f>
-        <v/>
-      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="8">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" ref="J57:J62" si="28">H57+F57+D57+B57</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9">
+        <f t="shared" ref="L57:L62" si="29">K57-J57</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="9" t="str">
+        <f t="shared" ref="M57:M62" si="30">IF(L57&gt;0.01,L57/K57,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="8">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="8">
-        <v>0</v>
-      </c>
-      <c r="L57" s="9">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="9" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -3309,451 +3259,514 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
+    <row r="59" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="8">
+        <v>0</v>
+      </c>
+      <c r="L59" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="27">
-        <f>B54+B45+B33+B27+B22</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="27">
-        <f t="shared" ref="C59:K59" si="31">C54+C45+C33+C27+C22</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="27">
+      <c r="B60" s="15">
+        <f>B55+B46+B34+B28+B23</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="15">
+        <f t="shared" ref="C60:K60" si="31">C55+C46+C34+C28+C23</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="15">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="E59" s="27">
+      <c r="E60" s="15">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F60" s="15">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="G59" s="27">
+      <c r="G60" s="15">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H59" s="27">
+      <c r="H60" s="15">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I60" s="15">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J59" s="27">
+      <c r="J60" s="15">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="K59" s="27">
+      <c r="K60" s="15">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-    </row>
-    <row r="60" spans="1:13" ht="24" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:13" ht="24" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="3">
-        <v>0</v>
-      </c>
-      <c r="C60" s="28">
-        <v>0</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="28">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="28">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="28">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="28">
-        <v>0</v>
-      </c>
-      <c r="L60" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="24" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="B61" s="3">
         <v>0</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="16">
         <v>0</v>
       </c>
       <c r="D61" s="3">
         <v>0</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="16">
         <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
-      <c r="G61" s="28">
+      <c r="G61" s="16">
         <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="16">
         <v>0</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="K61" s="28">
-        <v>0</v>
-      </c>
-      <c r="L61" s="24">
+      <c r="K61" s="16">
+        <v>0</v>
+      </c>
+      <c r="L61" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="M61" s="24" t="str">
+      <c r="M61" s="12" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="16">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="16">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="16">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="16">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="16">
+        <v>0</v>
+      </c>
+      <c r="L62" s="12">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="12" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="36">
-        <f>B61+B60+B59</f>
-        <v>0</v>
-      </c>
-      <c r="C62" s="36">
-        <f t="shared" ref="C62:K62" si="32">C61+C60+C59</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="36">
+      <c r="B63" s="19">
+        <f>B62+B61+B60</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="19">
+        <f t="shared" ref="C63:K63" si="32">C62+C61+C60</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="19">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E63" s="19">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F63" s="19">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G62" s="36">
+      <c r="G63" s="19">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H63" s="19">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="I62" s="36">
+      <c r="I63" s="19">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J63" s="19">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="K62" s="36">
+      <c r="K63" s="19">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="35"/>
-    </row>
-    <row r="64" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="25"/>
+    </row>
+    <row r="65" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30">
-        <f t="shared" ref="J64:J67" si="33">H64+F64+D64+B64</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="30"/>
-      <c r="L64" s="9">
-        <f t="shared" ref="L64:L68" si="34">K64-J64</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="9" t="str">
-        <f t="shared" ref="M64:M67" si="35">IF(L64&gt;0.01,L64/K64,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
+      <c r="B65" s="18">
+        <v>0</v>
+      </c>
+      <c r="C65" s="18">
+        <v>0</v>
+      </c>
+      <c r="D65" s="18">
+        <v>0</v>
+      </c>
+      <c r="E65" s="18">
+        <v>0</v>
+      </c>
+      <c r="F65" s="18">
+        <v>0</v>
+      </c>
+      <c r="G65" s="18">
+        <v>0</v>
+      </c>
+      <c r="H65" s="18">
+        <v>0</v>
+      </c>
+      <c r="I65" s="18">
+        <v>0</v>
+      </c>
+      <c r="J65" s="18">
+        <f t="shared" ref="J65:J68" si="33">H65+F65+D65+B65</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="18">
+        <v>0</v>
+      </c>
+      <c r="L65" s="9">
+        <f t="shared" ref="L65:L68" si="34">K65-J65</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="9" t="str">
+        <f t="shared" ref="M65:M68" si="35">IF(L65&gt;0.01,L65/K65,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="29">
-        <f>B62-B64</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="29">
-        <f t="shared" ref="C65:K65" si="36">C62-C64</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="29">
+      <c r="B66" s="17">
+        <f>B63-B65</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="17">
+        <f t="shared" ref="C66:K66" si="36">C63-C65</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="17">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E66" s="17">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F66" s="17">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G65" s="29">
+      <c r="G66" s="17">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H65" s="29">
+      <c r="H66" s="17">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I65" s="29">
+      <c r="I66" s="17">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J65" s="29">
+      <c r="J66" s="17">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K65" s="29">
+      <c r="K66" s="17">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-    </row>
-    <row r="66" spans="1:13" ht="24" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+    </row>
+    <row r="67" spans="1:13" ht="24" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="C66" s="8">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0</v>
-      </c>
-      <c r="E66" s="8">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0</v>
-      </c>
-      <c r="G66" s="8">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0</v>
-      </c>
-      <c r="I66" s="8">
-        <v>0</v>
-      </c>
-      <c r="J66" s="1">
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="8">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K66" s="8">
-        <v>0</v>
-      </c>
-      <c r="L66" s="9">
+      <c r="K67" s="8">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M66" s="9" t="str">
+      <c r="M67" s="9" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
+    <row r="68" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="29">
-        <f>B65-B66</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="29">
-        <f t="shared" ref="C67:K67" si="37">C65-C66</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="29">
+      <c r="B68" s="17">
+        <f>B66-B67</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="17">
+        <f t="shared" ref="C68:K68" si="37">C66-C67</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="17">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E68" s="17">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F67" s="29">
+      <c r="F68" s="17">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G67" s="29">
+      <c r="G68" s="17">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="H67" s="29">
+      <c r="H68" s="17">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="I67" s="29">
+      <c r="I68" s="17">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="J67" s="29">
+      <c r="J68" s="17">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K67" s="29">
+      <c r="K68" s="17">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L67" s="29">
+      <c r="L68" s="17">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M67" s="29" t="str">
+      <c r="M68" s="17" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="24" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:13" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="31" t="e">
-        <f>B67/B64</f>
+      <c r="B69" s="17" t="e">
+        <f>B68/B65</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C68" s="32" t="e">
-        <f t="shared" ref="C68:K68" si="38">C67/C64</f>
+      <c r="C69" s="17" t="e">
+        <f t="shared" ref="C69:K69" si="38">C68/C65</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D68" s="31" t="e">
+      <c r="D69" s="17" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E68" s="32" t="e">
+      <c r="E69" s="17" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F68" s="31" t="e">
+      <c r="F69" s="17" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G68" s="32" t="e">
+      <c r="G69" s="17" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="31" t="e">
+      <c r="H69" s="17" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I68" s="32" t="e">
+      <c r="I69" s="17" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J68" s="31" t="e">
+      <c r="J69" s="17" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K68" s="32" t="e">
+      <c r="K69" s="17" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L68" s="9" t="s">
+      <c r="L69" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M68" s="9" t="s">
+      <c r="M69" s="17" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="70" spans="1:13" ht="22.2" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A55:M55"/>
-    <mergeCell ref="A63:M63"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A56:M56"/>
+    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="A8:M8"/>
     <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A15:M15"/>
     <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="A6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/file/finance.xlsx
+++ b/assets/file/finance.xlsx
@@ -704,7 +704,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,6 +769,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,10 +808,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,7 +1122,7 @@
   <dimension ref="A2:M70"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="21.6" x14ac:dyDescent="0.25"/>
@@ -1140,39 +1143,39 @@
     <col min="14" max="16384" width="11.296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="A3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -1241,21 +1244,21 @@
       <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1303,21 +1306,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1550,38 +1553,38 @@
       <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:13" ht="22.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1807,21 +1810,21 @@
       <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1915,38 +1918,38 @@
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13" ht="24" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
     </row>
     <row r="25" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2084,21 +2087,21 @@
       <c r="M28" s="15"/>
     </row>
     <row r="29" spans="1:13" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2324,21 +2327,21 @@
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
     </row>
     <row r="36" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2385,21 +2388,21 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2783,21 +2786,21 @@
       <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:13" ht="22.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
     </row>
     <row r="48" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -3155,21 +3158,21 @@
       <c r="M55" s="15"/>
     </row>
     <row r="56" spans="1:13" ht="22.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
     </row>
     <row r="57" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -3486,21 +3489,21 @@
       <c r="M63" s="19"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="25"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="27"/>
     </row>
     <row r="65" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
@@ -3744,13 +3747,6 @@
     <row r="70" spans="1:13" ht="22.2" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
@@ -3767,6 +3763,13 @@
     <mergeCell ref="A37:M37"/>
     <mergeCell ref="A47:M47"/>
     <mergeCell ref="A6:M6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
